--- a/April.xlsx
+++ b/April.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\disgu\OneDrive\Documents\GitHub\TestClear\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D05DF391-0EF2-4B74-A007-ABD27F5BDCBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A85E63BD-750F-4F0E-9514-FC489A2A77AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5640" yWindow="2940" windowWidth="28080" windowHeight="11835" xr2:uid="{4118080E-C913-4F17-B587-3E78ECE98FB1}"/>
+    <workbookView xWindow="6330" yWindow="3630" windowWidth="28080" windowHeight="11835" xr2:uid="{4118080E-C913-4F17-B587-3E78ECE98FB1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,6 +31,50 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>sum1</t>
+  </si>
+  <si>
+    <t>sum2</t>
+  </si>
+  <si>
+    <t>sum3</t>
+  </si>
+  <si>
+    <t>total1</t>
+  </si>
+  <si>
+    <t>sum01</t>
+  </si>
+  <si>
+    <t>sum02</t>
+  </si>
+  <si>
+    <t>sum03</t>
+  </si>
+  <si>
+    <t>total2</t>
+  </si>
+  <si>
+    <t>actualTotal1</t>
+  </si>
+  <si>
+    <t>actualTotal2</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -380,14 +424,56 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9E10390-0355-49A0-B7BD-A5E4522FA973}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:M1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection sqref="A1:M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>